--- a/Biblioteca.xlsx
+++ b/Biblioteca.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="51">
   <si>
     <t>Qnt</t>
   </si>
@@ -44,16 +44,16 @@
     <t>Leitura</t>
   </si>
   <si>
-    <t>fgaqfwaf</t>
-  </si>
-  <si>
-    <t>fwafwafa</t>
-  </si>
-  <si>
-    <t>fwafwafawf</t>
-  </si>
-  <si>
-    <t>fwafawfwaf</t>
+    <t>Fria Ventania</t>
+  </si>
+  <si>
+    <t>Archives</t>
+  </si>
+  <si>
+    <t>Editora Panini</t>
+  </si>
+  <si>
+    <t>A história de dois aventureiros, o tigre Evan e a raposa Amélia, no início de sua jornada mundo afora em busca do lar perfeito.</t>
   </si>
   <si>
     <t>Físico</t>
@@ -62,10 +62,112 @@
     <t>2 Estrelas</t>
   </si>
   <si>
+    <t>Comprado</t>
+  </si>
+  <si>
+    <t>Não feita</t>
+  </si>
+  <si>
+    <t>Denfell</t>
+  </si>
+  <si>
+    <t>DeltaYD</t>
+  </si>
+  <si>
+    <t>Editora Anjo</t>
+  </si>
+  <si>
+    <t>Histórias curtas no ambiente de Denfell. A história da labeuth de Seskriv; O convívio dos três irmãos em Jethrill; A lenda de Lucy e o espírito do fogo. Tudo numa única edição!</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>5 Estrelas</t>
+  </si>
+  <si>
     <t>Faltando</t>
   </si>
   <si>
-    <t>Não feita</t>
+    <t>Kalimari Desert</t>
+  </si>
+  <si>
+    <t>Alo</t>
+  </si>
+  <si>
+    <t>Sei lá, alguma editora ae</t>
+  </si>
+  <si>
+    <t>História bem velha no meio do deserto de Kalimari e o ataque à prisão de segurança máxima. Várias trapalhadas e acidentes coincidentais.</t>
+  </si>
+  <si>
+    <t>3 Estrelas</t>
+  </si>
+  <si>
+    <t>Baixado</t>
+  </si>
+  <si>
+    <t>Feita</t>
+  </si>
+  <si>
+    <t>Harry Potter</t>
+  </si>
+  <si>
+    <t>JK Rowling</t>
+  </si>
+  <si>
+    <t>Harry Porco</t>
+  </si>
+  <si>
+    <t>JK Im trolling</t>
+  </si>
+  <si>
+    <t>Harry Edwiges</t>
+  </si>
+  <si>
+    <t>Jackie Chan</t>
+  </si>
+  <si>
+    <t>Harry Bacon</t>
+  </si>
+  <si>
+    <t>sdfafasd</t>
+  </si>
+  <si>
+    <t>alooo</t>
+  </si>
+  <si>
+    <t>Silentium</t>
+  </si>
+  <si>
+    <t>Mark something</t>
+  </si>
+  <si>
+    <t>Rocco</t>
+  </si>
+  <si>
+    <t>Non canon Halo book</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Mark Something</t>
+  </si>
+  <si>
+    <t>4 Estrelas</t>
+  </si>
+  <si>
+    <t>Jackie Chan Lee</t>
+  </si>
+  <si>
+    <t>Non canon Halo Book</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>bvrwinvwivewvnownevp</t>
   </si>
 </sst>
 </file>
@@ -73,7 +175,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="22">
+  <fonts count="255">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -156,22 +258,22 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="22"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="22"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="22"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="22"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -188,15 +290,1207 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="22"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="22"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="22"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="22"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="22"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="22"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="53"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="53"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="22"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="22"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="53"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="53"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="49"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="49"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="22"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="22"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="22"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="22"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="53"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="53"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="22"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="22"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="53"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="53"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="49"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="49"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="22"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="22"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="22"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="22"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="53"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="53"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="22"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="22"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="53"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="53"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="49"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="49"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="22"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="22"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="22"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="22"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="53"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="53"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="22"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="22"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="53"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="53"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="22"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="22"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="22"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="22"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="53"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="53"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="22"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="22"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="22"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="22"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="22"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="22"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="53"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="53"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="22"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="22"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="22"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="22"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="22"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="22"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="53"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="53"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="22"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="22"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="22"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="22"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="22"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="22"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="53"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="53"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="22"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="22"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="49"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="49"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="49"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="49"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="49"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="49"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="49"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="49"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="49"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="49"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="49"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="49"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="49"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="49"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="49"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color indexed="49"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,12 +1509,37 @@
     </fill>
     <fill>
       <patternFill patternType="none">
+        <fgColor rgb="F7DDD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F7DDD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
         <fgColor rgb="707070"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="707070"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="D7F7D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="D7F7D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
       </patternFill>
     </fill>
   </fills>
@@ -254,7 +1573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
@@ -311,6 +1630,745 @@
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="65" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="74" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="76" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="86" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="96" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="107" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="117" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="127" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="136" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="145" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="154" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="163" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="172" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="174" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="184" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="186" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="195" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="205" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="214" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="216" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="226" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="235" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="237" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="247" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
   </cellXfs>
@@ -319,7 +2377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -369,29 +2427,377 @@
       <c r="A2" t="n" s="12">
         <v>1.0</v>
       </c>
-      <c r="B2" t="s" s="14">
+      <c r="B2" t="s" s="145">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s" s="146">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s" s="147">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s" s="148">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s" s="149">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s" s="150">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s" s="151">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s" s="152">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="24">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s" s="25">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s" s="26">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s" s="27">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s" s="28">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s" s="29">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s" s="30">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s" s="31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="32">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s" s="34">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s" s="35">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s" s="36">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s" s="37">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s" s="38">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s" s="39">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s" s="40">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s" s="41">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="43">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s" s="45">
         <v>9</v>
       </c>
-      <c r="C2" t="s" s="15">
+      <c r="C5" t="s" s="46">
         <v>10</v>
       </c>
-      <c r="D2" t="s" s="16">
+      <c r="D5" t="s" s="47">
         <v>11</v>
       </c>
-      <c r="E2" t="s" s="17">
+      <c r="E5" t="s" s="48">
         <v>12</v>
       </c>
-      <c r="F2" t="s" s="18">
+      <c r="F5" t="s" s="49">
         <v>13</v>
       </c>
-      <c r="G2" t="s" s="19">
+      <c r="G5" t="s" s="50">
         <v>14</v>
       </c>
-      <c r="H2" t="s" s="20">
+      <c r="H5" t="s" s="51">
         <v>15</v>
       </c>
-      <c r="I2" t="s" s="21">
+      <c r="I5" t="s" s="52">
         <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n" s="53">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s" s="55">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s" s="56">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s" s="57">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s" s="58">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s" s="59">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s" s="60">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s" s="61">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s" s="62">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="63">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s" s="65">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s" s="66">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s" s="67">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s" s="68">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s" s="69">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s" s="70">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s" s="71">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s" s="72">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n" s="74">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s" s="76">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s" s="77">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s" s="78">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s" s="79">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s" s="80">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s" s="81">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s" s="82">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s" s="83">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="84">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s" s="86">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s" s="87">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s" s="88">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s" s="89">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s" s="90">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s" s="91">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s" s="92">
+        <v>23</v>
+      </c>
+      <c r="I9" t="s" s="93">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="94">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s" s="96">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s" s="97">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s" s="98">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s" s="99">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s" s="100">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s" s="101">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s" s="102">
+        <v>29</v>
+      </c>
+      <c r="I10" t="s" s="103">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n" s="105">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s" s="163">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s" s="164">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s" s="165">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s" s="166">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s" s="167">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s" s="168">
+        <v>22</v>
+      </c>
+      <c r="H11" t="s" s="169">
+        <v>23</v>
+      </c>
+      <c r="I11" t="s" s="170">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n" s="115">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s" s="154">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s" s="155">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s" s="156">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s" s="157">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s" s="158">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s" s="159">
+        <v>22</v>
+      </c>
+      <c r="H12" t="s" s="160">
+        <v>23</v>
+      </c>
+      <c r="I12" t="s" s="161">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n" s="125">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s" s="283">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s" s="284">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s" s="285">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s" s="286">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s" s="287">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s" s="288">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s" s="289">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s" s="290">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="273">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s" s="274">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s" s="275">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s" s="276">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s" s="277">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s" s="278">
+        <v>44</v>
+      </c>
+      <c r="G14" t="s" s="279">
+        <v>44</v>
+      </c>
+      <c r="H14" t="s" s="280">
+        <v>44</v>
+      </c>
+      <c r="I14" t="s" s="281">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
